--- a/resources/AP2/Notes_ApresRat.xlsx
+++ b/resources/AP2/Notes_ApresRat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\AP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B72EFF-C07A-427D-80DD-A49925C38C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D694D9B9-0EC8-4DCC-93AB-75556AB55118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7B301CA2-AA96-4639-A977-2BC5594F1189}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7B301CA2-AA96-4639-A977-2BC5594F1189}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -484,20 +482,20 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -527,15 +525,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2000</v>
+        <v>20000001</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
       <c r="D2">
         <v>10.199999999999999</v>
@@ -565,16 +563,16 @@
         <v>11.44</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>$A2+1</f>
-        <v>2001</v>
+        <v>20000002</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -604,16 +602,16 @@
         <v>18.64</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A11" si="0">$A3+1</f>
-        <v>2002</v>
+        <v>20000003</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
       </c>
       <c r="D4">
         <v>10.52</v>
@@ -643,16 +641,16 @@
         <v>10.98</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>2003</v>
+        <v>20000004</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
       </c>
       <c r="D5">
         <v>15.57</v>
@@ -682,16 +680,16 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>2004</v>
+        <v>20000005</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
       <c r="D6">
         <v>17.66</v>
@@ -721,16 +719,16 @@
         <v>12.89</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>2005</v>
+        <v>20000006</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7">
         <v>12.65</v>
@@ -760,16 +758,16 @@
         <v>16.22</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>2006</v>
+        <v>20000007</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8">
         <v>11.45</v>
@@ -799,16 +797,16 @@
         <v>13.67</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>2007</v>
+        <v>20000008</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="D9">
         <v>14.69</v>
@@ -838,16 +836,16 @@
         <v>15.32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>2008</v>
+        <v>20000009</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
       <c r="D10">
         <v>17.149999999999999</v>
@@ -877,16 +875,16 @@
         <v>14.56</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>2009</v>
+        <v>20000010</v>
       </c>
       <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
       </c>
       <c r="D11">
         <v>11.85</v>
